--- a/myapp/data_idx_gabung.xlsx
+++ b/myapp/data_idx_gabung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\SHINY FOR IDX\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7459AD-91AA-4A22-B73C-62D7D96ABA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37CD421-A352-4729-85DF-D6C34C81CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="332">
   <si>
     <t>No</t>
   </si>
@@ -329,6 +329,81 @@
     <t>government ownership; institutional ownership; ownership concentration; sustainability reporting; return on assets; return on equity</t>
   </si>
   <si>
+    <t>Artificial Intelligence in The Application of ESG to Improve Company Reputation: The Moderating Role of Financial Performance</t>
+  </si>
+  <si>
+    <t>Harfiahani Indah Rakhma Ningtyas; Wildan Mualim; Anis Nusron</t>
+  </si>
+  <si>
+    <t>Journal of Accounting Science</t>
+  </si>
+  <si>
+    <t>25483501</t>
+  </si>
+  <si>
+    <t>https://jas.umsida.ac.id/index.php/jas/article/view/2047</t>
+  </si>
+  <si>
+    <t>artificial intelligence; esg; corporate reputation; financial performance; moderation</t>
+  </si>
+  <si>
+    <t>Sinta 3</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/2299</t>
+  </si>
+  <si>
+    <t>The sampling process began with a total population of 545 manufacturing companies listed on the Indonesia Stock Exchange (IDX) during the period 2019–2024. Source: Secondary Data Processed by SPSS (2025). This study uses a quantitative approach with secondary data from 425 Indonesian manufacturing companies in the basic and chemical, mixed goods, and consumer goods sectors, analysed using multiple linear regression and Moderated Regression Analysis (MRA).</t>
+  </si>
+  <si>
+    <t>multiple linear regression; moderated regression analysis</t>
+  </si>
+  <si>
+    <t>corporate reputation; artificial intelligence in esg; financial performance; company size; company age; leverage; growth</t>
+  </si>
+  <si>
+    <t>Article Processing Charge; JAS is an open access international journal. Since manuscript submission for Volume 9 number 1 January 2025, author(s) pay some processing fees IDR 850.000. The  APC should be paid in 3 days max after the acceptance of manuscript. Link: https://jas.umsida.ac.id/index.php/jas/authorfees</t>
+  </si>
+  <si>
+    <t>Analysis of the Influence of Profitability, Company Size, Leverage, and Sales Growth on Tax Avoidance</t>
+  </si>
+  <si>
+    <t>M. Azzuhruf Muadzimin; Isnan Murdiansyah</t>
+  </si>
+  <si>
+    <t>The Accounting Journal of Binaniaga</t>
+  </si>
+  <si>
+    <t>25801481</t>
+  </si>
+  <si>
+    <t>https://tajb.unbin.ac.id/index.php/ajb/article/view/66</t>
+  </si>
+  <si>
+    <t>company size; leverage; profitability; sales growth; tax avoidance</t>
+  </si>
+  <si>
+    <t>Sinta 4</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/3966</t>
+  </si>
+  <si>
+    <t>Based on the results of the regression model selection analysis that has been carried out, the best model to use is the Fixed Effect Model (FEM), which is included in the Ordinary Least Square (OLS) approach. After determining the model to be used, the next analysis is panel data regression analysis because this study uses four independent variables and one dependent variable. Source: Output Eviews 12 (2025)</t>
+  </si>
+  <si>
+    <t>fixed effect model; panel data regression</t>
+  </si>
+  <si>
+    <t>This study aims to analyze the effect of profitability, company size, leverage, and sales growth on tax avoidance in property and real estate on the indonesia Stock Exchange for the period 2019-2023.</t>
+  </si>
+  <si>
+    <t>tax avoidance; profitability; company size; leverage; sales growth</t>
+  </si>
+  <si>
+    <t>Author Fee; This journal charges the following author fees. Article Publication Charge: 750000.00 (IDR); Fast Track: 1000000.00 (IDR). Link: https://tajb.unbin.ac.id/index.php/ajb/AuthorFee</t>
+  </si>
+  <si>
     <t>Board commissioner characteristics and intellectual capital on company financial performance in banking industries</t>
   </si>
   <si>
@@ -448,6 +523,42 @@
 Link: https://jurnal.usk.ac.id/JAROE/about/submissions#onlineSubmissions</t>
   </si>
   <si>
+    <t>Pengaruh CSR dan EPS terhadap Harga Saham pada Perusahaan yang Terdaftar di Jakarta Islamic Index</t>
+  </si>
+  <si>
+    <t>Syaifa Scholastika Silmi; Widya Sari</t>
+  </si>
+  <si>
+    <t>Jurnal Accounting Information System</t>
+  </si>
+  <si>
+    <t>26217279</t>
+  </si>
+  <si>
+    <t>https://jurnal.masoemuniversity.ac.id/index.php/aims/article/view/1627</t>
+  </si>
+  <si>
+    <t>corporate social responsibility; earning per share; jakarta Islamic index; stock price</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/6462</t>
+  </si>
+  <si>
+    <t>Pemilihan model estimasi data panel dilakukan untuk menetapkan model yang sesuai untuk digunakan dalam mengelola data panel antara Common Effect Model (CEM), Fixed Effect Model (FEM), dan Random Effect Model (REM). Terdapat tiga metode yang dapat dilakukan untuk memilih model yang sesuai yaitu Uji Chow, Uji Hausman, dan Uji Lagrange-Multiplier [28]</t>
+  </si>
+  <si>
+    <t>panel data regression</t>
+  </si>
+  <si>
+    <t>Objek dalam penelitian ini adalah laporan tahunan perusahaan yang terdaftar di Jakarta Islamic Index. Data yang digunakan berupa data sekunder yang diperoleh dari laporan tahunan perusahaan yang terdaftar di Jakarta Islamic Index, serta harga saham yang dipublikasikan oleh Bursa Efek Indonesia. Teknik pengumpulan data yang digunakan ialah studi dokumentasi, dengan sumber informasi utama berasal dari situs resmi Bursa Efek Indonesia (www.idx.co.id) di mana tersedia informasi mengenai laporan tahunan serta harga saham perusahaan. Populasi merupakan kumpulan objek yang terkait dengan masalah penelitian dan memenuhi ciri serta karakteristik tertentu [27]. Populasi dalam penelitian ini mencakup perusahaan yang terdaftar di JII sepanjang tahun 2020-2024 dengan total 59 emiten.</t>
+  </si>
+  <si>
+    <t>corporate social responsibility; earning per share; stock price</t>
+  </si>
+  <si>
+    <t>ARTICLE SUBMISSION: 0.00 (IDR); Authors ARE NOT REQUIRED to pay for an article Submission and Processing Charge but only for the accepted manuscript will be asked to pay the Article Publication fee. ARTICLE PUBLICATION:  IDR 400.000.00. Link: https://jurnal.masoemuniversity.ac.id/index.php/aims/authorfees</t>
+  </si>
+  <si>
     <t>Sustainable Practices in Manufacturing: How Green Innovation Drives Financial Performance with Gender Diversity and CSR as Moderators</t>
   </si>
   <si>
@@ -722,6 +833,39 @@
 Link: https://ejournal.aibpmjournals.com/index.php/IJAFAP/pages/view/articlePublicationCharge</t>
   </si>
   <si>
+    <t>The Impact of Digital Transformation on ESG Performance: The Moderating Role of Green Innovation</t>
+  </si>
+  <si>
+    <t>Serly; Selvia; Erna Wati</t>
+  </si>
+  <si>
+    <t>Global Financial Accounting Journal</t>
+  </si>
+  <si>
+    <t>2655836X</t>
+  </si>
+  <si>
+    <t>https://journal.uib.ac.id/index.php/gfa/article/view/11085</t>
+  </si>
+  <si>
+    <t>digital transformation; esg performance; green innovation; manufacturing companies; digital technology</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/7827</t>
+  </si>
+  <si>
+    <t>The data were analyzed using multiple linear regression with the help of SPSS software. Several tests were carried out in this research, including the normality test, multicollinearity test, heteroscedasticity test, multiple linear regression analysis, and the moderated regression analysis (MRA).</t>
+  </si>
+  <si>
+    <t>This research employs a quantitative approach with the objective of examining the hypotheses concerning the influence of digital transformation on ESG performance and green innovation among manufacturing firms in Indonesia. The data sample is derived from the annual reports of publicly listed companies on the Indonesia Stock Exchange (BEI) for the years 2019-2023, as this period captures the rapid acceleration of digital adoption in response to industry and the Covid-19 pandemic, alongside the increasing emphasis on ESG reporting in Indonesia’s regulatory and corporate landscape (Susilawati, 2023). The population in this research includes all manufacturing companies recorded on the BEI. A probability sampling method was applied to determine the sample (Pace, 2021). Applying these criteria resulted in a final sample of 148 companies.</t>
+  </si>
+  <si>
+    <t>digital transformation; esg performance; green innovation</t>
+  </si>
+  <si>
+    <t>Article Processing Charges; This journal charges the following author fees. Article Submission: 0.00 (IDR); Article Publication: 500.000 (IDR); Link: https://journal.uib.ac.id/index.php/gfa/fee</t>
+  </si>
+  <si>
     <t>Financial distress, cash holding, and its effect on earnings management with internal control as a moderator</t>
   </si>
   <si>
@@ -738,9 +882,6 @@
   </si>
   <si>
     <t>cash holding; earnings management; financial distress; internal control</t>
-  </si>
-  <si>
-    <t>Sinta 3</t>
   </si>
   <si>
     <t>https://sinta.kemdiktisaintek.go.id/journals/profile/8828</t>
@@ -749,9 +890,6 @@
     <t>Multiple linear regression is used to examine the direct effects of financial distress and cash holding on earnings management, while moderated regression analysis tests the moderating role of internal control.
 This study used multiple linear regression and moderated regression for data testing
 Data analysis was performed using EViews on 390 data points from 130 companies for three years. The following is a descriptive statistical test, as shown in Table 3.</t>
-  </si>
-  <si>
-    <t>multiple linear regression; moderated regression analysis</t>
   </si>
   <si>
     <t>The study uses manufacturing companies listed on the Indonesia Stock Exchange (IDX) that consistently published annual reports from 2021–2023, totaling 130 firms. Data were obtained from audited financial statements through the official IDX database. Multiple linear regression is used to examine the direct effects of financial distress and cash holding on earnings management, while moderated regression analysis tests the moderating role of internal control.</t>
@@ -766,6 +904,44 @@
 IDR 1.750.000,00
 Per Article
 Link: https://goodwoodpub.com/index.php/ijfam/about/aboutJournal</t>
+  </si>
+  <si>
+    <t>Beyond stability: Mapping financial performance volatility and audit quality</t>
+  </si>
+  <si>
+    <t>Arika Artiningsih; Firdaus Kurniawan; Albertus Henri Listyanto Nugroho</t>
+  </si>
+  <si>
+    <t>Journal of Contemporary Accounting</t>
+  </si>
+  <si>
+    <t>26571935</t>
+  </si>
+  <si>
+    <t>https://journal.uii.ac.id/JCA/article/view/43982</t>
+  </si>
+  <si>
+    <t>audit quality; financial performance volatility; profitability; liquidity; solvency; indonesia</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/8862</t>
+  </si>
+  <si>
+    <t>To examine the relationship between financial performance volatility and audit quality, this study employs a Fixed Effects (FE) panel regression model. The FE estimator is selected because it effectively controls for time-invariant firm-specific characteristics, that could bias the estimated coefficients if unobserved. By focusing on within-firm variation over time, the FE model mitigates.
+For the second hypothesis, the study applies K-Means Cluster Analysis to classify firms based on the volatility patterns of the six financial performance indicators. This clustering technique identifies natural groupings of firms with similar volatility characteristics, such as “stable,” “moderately volatile,” and “highly volatile” profiles. After defining the clusters, differences in audit quality among these groups are tested using both parametric (ANOVA) and non-parametric (Kruskal–Wallis) methods. Finally, a supplementary Fixed Effects regression incorporates cluster membership as an explanatory variable to determine whether volatility-based classifications systematically correspond to variations in audit quality, as expressed in Equation (2):</t>
+  </si>
+  <si>
+    <t>fixed effect model; panel regression model; k-means cluster analysis; anova; kruskal-wallis test</t>
+  </si>
+  <si>
+    <t>This study examines the relationship between financial performance volatility and audit quality among non-financial firms listed on the Indonesia Stock Exchange from 2010 to 2024. Using 4,533 firm-year observations, the study examines how fluctuations in profitability, liquidity, and solvency impact the effectiveness of external audits, as measured by the absolute value of discretionary accruals.
+We use firms that listed on Indonesia Stock Exchange (IDX) over the period 2010–2024. Financial sector firms are excluded from the sample due to their distinct regulatory frameworks and financial reporting structures, which differ substantially from those of non-financial firms. Data were obtained from the Bureau Van Dijk (OSIRIS) and Refinitiv Eikon databases, which provide comprehensive firm-level financial information, as well as from annual reports to identify auditor type (Big 4 vs. non–Big 4).</t>
+  </si>
+  <si>
+    <t>firm size; leverage; asset growth; market-to-book ratio; profitability; liquidity; solvability; audit quality</t>
+  </si>
+  <si>
+    <t>We previously charged an APC of IDR 750,000 (for Indonesian authors) and USD 50 (for foreign authors) per article published in our journal. Starting February 20, 2025, the APC will be slightly increased to IDR 1,000,000 for Indonesian authors) and USD 65 (for foreign authors). Link: https://journal.uii.ac.id/JCA/APC</t>
   </si>
   <si>
     <t>The effects of information content of cash flow statement, dividend payout ratio, economic value added and corporate social responsibility on stock trading volume</t>
@@ -843,6 +1019,42 @@
 Article Submission Charges (ASC)
 Ilomata International Journal of Tax and Accounting does not charge for article submissions.
 Link: https://ilomata.org/index.php/ijtc/apc#apc</t>
+  </si>
+  <si>
+    <t>Transfer Pricing in the Spotlight: An Analysis of the Role of Taxes, Profitability, Tunneling Incentives, and Independent Commissioners</t>
+  </si>
+  <si>
+    <t>Subagio; Hendra Prasetya Ardianto</t>
+  </si>
+  <si>
+    <t>Dinasti International Journal of Economics, Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t>2721303X</t>
+  </si>
+  <si>
+    <t>https://dinastipub.org/DIJEFA/article/view/5584</t>
+  </si>
+  <si>
+    <t>transfer pricing; tax; profitability; tunneling incentive; independent commissioner</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/11472</t>
+  </si>
+  <si>
+    <t>This study uses a quantitative method with a panel data regression analysis model, random effects model (REM). The panel data regression model used in this study was selected based on a series of model specification tests, and the results of the tests conducted by the author indicate that the random effects model (REM) is the most appropriate model. Based on the regression analysis conducted using STATA in this study.</t>
+  </si>
+  <si>
+    <t>panel data regression; random effects model</t>
+  </si>
+  <si>
+    <t>The research sample consisted of mining sector companies listed on the Indonesia Stock Exchange (IDX) in 2020-2023, selected through purposive sampling.</t>
+  </si>
+  <si>
+    <t>transfer pricing; profitability; return on asset; effective tax rate; tunneling incentive; independent commissioners</t>
+  </si>
+  <si>
+    <t>Article Processing Charges; To support this open access journal, we have an honorary charge for publication of an accepted manuscript USD 175 or IDR 2.500.000; link: https://dinastipub.org/DIJEFA/Article-Processing-Charges</t>
   </si>
   <si>
     <t>The influence of sustainability reporting and green accounting on financial performance of mining companies listed on the Indonesia stock exchange for the 2021-2023 period</t>
@@ -959,8 +1171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U24" totalsRowShown="0">
-  <autoFilter ref="A1:U24" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U30" totalsRowShown="0">
+  <autoFilter ref="A1:U30" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title of Article"/>
@@ -1267,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,10 +1887,10 @@
         <v>94</v>
       </c>
       <c r="D8">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1696,22 +1908,22 @@
         <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
         <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s">
         <v>101</v>
-      </c>
-      <c r="P8" t="s">
-        <v>102</v>
       </c>
       <c r="T8" t="s">
         <v>103</v>
@@ -1731,10 +1943,10 @@
         <v>106</v>
       </c>
       <c r="D9">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1752,28 +1964,28 @@
         <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1781,10 +1993,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D10">
         <v>2025</v>
@@ -1793,43 +2005,43 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="U10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1837,55 +2049,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D11">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M11" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="T11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="U11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1893,55 +2105,55 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="T12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="U12" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1949,55 +2161,55 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D13">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="T13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="U13" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2005,55 +2217,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D14">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="E14">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
         <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="T14" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="U14" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2061,55 +2273,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="D15">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
         <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="N15" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="T15" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="U15" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2117,52 +2329,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D16">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>133</v>
+        <v>170</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="O16" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="U16" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2170,55 +2385,55 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D17">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
         <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="T17" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="U17" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2226,55 +2441,55 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="D18">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
         <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="T18" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2282,55 +2497,52 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D19">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="T19" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="U19" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2338,55 +2550,55 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D20">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="I20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="T20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="U20" t="s">
-        <v>221</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2394,55 +2606,55 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D21">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
         <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N21" t="s">
+        <v>231</v>
+      </c>
+      <c r="O21" t="s">
+        <v>232</v>
+      </c>
+      <c r="P21" t="s">
+        <v>233</v>
+      </c>
+      <c r="T21" t="s">
         <v>229</v>
       </c>
-      <c r="O21" t="s">
-        <v>230</v>
-      </c>
-      <c r="P21" t="s">
-        <v>229</v>
-      </c>
-      <c r="T21" t="s">
-        <v>231</v>
-      </c>
       <c r="U21" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2450,55 +2662,55 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D22">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K22" t="s">
         <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T22" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="U22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2506,55 +2718,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I23" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M23" t="s">
         <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O23" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="P23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="T23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2562,55 +2774,388 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H24" t="s">
+        <v>260</v>
+      </c>
+      <c r="I24" t="s">
+        <v>261</v>
+      </c>
+      <c r="J24" t="s">
+        <v>262</v>
+      </c>
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>264</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="s">
+        <v>265</v>
+      </c>
+      <c r="T24" t="s">
+        <v>266</v>
+      </c>
+      <c r="U24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25">
+        <v>2025</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H25" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" t="s">
+        <v>272</v>
+      </c>
+      <c r="J25" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
+        <v>274</v>
+      </c>
+      <c r="N25" t="s">
+        <v>275</v>
+      </c>
+      <c r="O25" t="s">
+        <v>276</v>
+      </c>
+      <c r="P25" t="s">
+        <v>277</v>
+      </c>
+      <c r="T25" t="s">
+        <v>278</v>
+      </c>
+      <c r="U25" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26">
+        <v>2021</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" t="s">
+        <v>283</v>
+      </c>
+      <c r="I26" t="s">
+        <v>284</v>
+      </c>
+      <c r="J26" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>286</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" t="s">
+        <v>287</v>
+      </c>
+      <c r="O26" t="s">
+        <v>288</v>
+      </c>
+      <c r="P26" t="s">
+        <v>287</v>
+      </c>
+      <c r="T26" t="s">
+        <v>289</v>
+      </c>
+      <c r="U26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D27">
+        <v>2026</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>293</v>
+      </c>
+      <c r="H27" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" t="s">
+        <v>296</v>
+      </c>
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>297</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" t="s">
+        <v>298</v>
+      </c>
+      <c r="O27" t="s">
+        <v>299</v>
+      </c>
+      <c r="P27" t="s">
+        <v>298</v>
+      </c>
+      <c r="T27" t="s">
+        <v>300</v>
+      </c>
+      <c r="U27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28">
+        <v>2026</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" t="s">
+        <v>305</v>
+      </c>
+      <c r="I28" t="s">
+        <v>306</v>
+      </c>
+      <c r="J28" t="s">
+        <v>307</v>
+      </c>
+      <c r="K28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N28" t="s">
+        <v>309</v>
+      </c>
+      <c r="O28" t="s">
+        <v>310</v>
+      </c>
+      <c r="P28" t="s">
+        <v>311</v>
+      </c>
+      <c r="T28" t="s">
+        <v>312</v>
+      </c>
+      <c r="U28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
+      </c>
+      <c r="E29">
         <v>13</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>246</v>
-      </c>
-      <c r="H24" t="s">
-        <v>247</v>
-      </c>
-      <c r="I24" t="s">
-        <v>258</v>
-      </c>
-      <c r="J24" t="s">
-        <v>259</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="G29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H29" t="s">
+        <v>317</v>
+      </c>
+      <c r="I29" t="s">
+        <v>318</v>
+      </c>
+      <c r="J29" t="s">
+        <v>319</v>
+      </c>
+      <c r="K29" t="s">
         <v>41</v>
       </c>
-      <c r="L24" t="s">
-        <v>250</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="L29" t="s">
+        <v>320</v>
+      </c>
+      <c r="M29" t="s">
         <v>43</v>
       </c>
-      <c r="N24" t="s">
-        <v>260</v>
-      </c>
-      <c r="O24" t="s">
-        <v>252</v>
-      </c>
-      <c r="P24" t="s">
-        <v>260</v>
-      </c>
-      <c r="T24" t="s">
-        <v>261</v>
-      </c>
-      <c r="U24" t="s">
-        <v>255</v>
+      <c r="N29" t="s">
+        <v>321</v>
+      </c>
+      <c r="O29" t="s">
+        <v>322</v>
+      </c>
+      <c r="P29" t="s">
+        <v>323</v>
+      </c>
+      <c r="T29" t="s">
+        <v>324</v>
+      </c>
+      <c r="U29" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30">
+        <v>2025</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
+      <c r="I30" t="s">
+        <v>328</v>
+      </c>
+      <c r="J30" t="s">
+        <v>329</v>
+      </c>
+      <c r="K30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" t="s">
+        <v>330</v>
+      </c>
+      <c r="O30" t="s">
+        <v>322</v>
+      </c>
+      <c r="P30" t="s">
+        <v>330</v>
+      </c>
+      <c r="T30" t="s">
+        <v>331</v>
+      </c>
+      <c r="U30" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/data_idx_gabung.xlsx
+++ b/myapp/data_idx_gabung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\SHINY FOR IDX\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37CD421-A352-4729-85DF-D6C34C81CFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B850ED-D207-4738-A4E5-4F1170C6DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="387">
   <si>
     <t>No</t>
   </si>
@@ -481,6 +481,39 @@
 Link: https://jasf.upnjatim.ac.id/index.php/jasf/Reviewer-Process</t>
   </si>
   <si>
+    <t>The Effect of Audit Fee, Auditor Rotation, Auditor Firm Reputation, and Auditor Specialization on Audit Quality</t>
+  </si>
+  <si>
+    <t>Siti Rochmatilah; Barkah Susanto; Anissa Hakim Purwantini</t>
+  </si>
+  <si>
+    <t>Journal of Islamic Finance and Accounting</t>
+  </si>
+  <si>
+    <t>26151782</t>
+  </si>
+  <si>
+    <t>https://ejournal.uinsaid.ac.id/jifa/article/view/3005</t>
+  </si>
+  <si>
+    <t>Audit Fee; Audit Switching; Audit Firm Reputation; Auditor Specialization; Audit Quality</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/6817</t>
+  </si>
+  <si>
+    <t>The data analysis technique applied in this study is a quantitative method using multiple linear regression, an analytical tool to measure the effect of more than one independent variable on the dependent variable; Source: processed SPSS output, 2020</t>
+  </si>
+  <si>
+    <t>The purpose of this research was analyze the influence of audit fee, audit switching, audit firm reputation and auditor specialization on audit quality. Data in the current research were secondary data obtained from the financial statements of consumer good industry companies listed on the Indonesia Stock Exchange in the period 2017-2019. This study used purposive sampling method to select sample from the population. Based on method, obtained 26 companies with 78 samples.</t>
+  </si>
+  <si>
+    <t>Audit Quality; Audit Fee; Auditor Rotation; KAP Reputation; Auditor Specialization</t>
+  </si>
+  <si>
+    <t>IFA (Journal of Islamic Finance and Accounting)  DOES NOT charge authors submission and publication fees. The journal is owned by the Department of Sharia Accounting Faculty of Islamic Economics and Business UIN Raden Mas Said Surakarta that supports the operation and publication process. Link: https://ejournal.uinsaid.ac.id/index.php/jifa/Publication/Fee</t>
+  </si>
+  <si>
     <t>Top Management Teams Diversity on Firm Performance in the COVID-19 Pandemic: Evidence from Indonesia</t>
   </si>
   <si>
@@ -559,6 +592,39 @@
     <t>ARTICLE SUBMISSION: 0.00 (IDR); Authors ARE NOT REQUIRED to pay for an article Submission and Processing Charge but only for the accepted manuscript will be asked to pay the Article Publication fee. ARTICLE PUBLICATION:  IDR 400.000.00. Link: https://jurnal.masoemuniversity.ac.id/index.php/aims/authorfees</t>
   </si>
   <si>
+    <t>Firm Fundamentals, Corporate Life Cycle and Stock Market Crash: Evidence from an Emerging Economy</t>
+  </si>
+  <si>
+    <t>Muhammad Shahin Miah</t>
+  </si>
+  <si>
+    <t>Journal of Accounting, Business and Management</t>
+  </si>
+  <si>
+    <t>26222167</t>
+  </si>
+  <si>
+    <t>https://journal.stie-mce.ac.id/index.php/jabminternational/article/view/1177</t>
+  </si>
+  <si>
+    <t>stock market crash; firm fundamentals; developing market; life cycle stage; market return; return volatility</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/4384</t>
+  </si>
+  <si>
+    <t>4.2. Regression Models; To test of my proposition, I use the following regression model following Wang et al. (2009). correlation statistics</t>
+  </si>
+  <si>
+    <t>regression; correlation</t>
+  </si>
+  <si>
+    <t>The main purpose of this study is to investigate the impact of firm fundamentals on the propensity of stock market crash. More specifically, this study shows whether there is any association between the movements of share prices and firms’ accounting components along with other determinants using listed companies in Dhaka stock exchange (DSE). To examine the conjecture, the present study conducts an in-depth analysis based on a sample of DSE listed companies from 2005 to 2011.</t>
+  </si>
+  <si>
+    <t>stock returns; size; firm's market capitalization; ratio of total debt to total asset; ratio of the short-term debt to total debt; cash flow per share; ratio of ebit to total asset; bankrupt score; market return; DeAngelo; cashflow; total trade; change; volume</t>
+  </si>
+  <si>
     <t>Sustainable Practices in Manufacturing: How Green Innovation Drives Financial Performance with Gender Diversity and CSR as Moderators</t>
   </si>
   <si>
@@ -716,9 +782,6 @@
   <si>
     <t xml:space="preserve">Table 2 Bivariate Correlations; Table 3 Results of Cross-Sectional Regression Analysis; Table 4 Regression Analysis
 </t>
-  </si>
-  <si>
-    <t>regression; correlation</t>
   </si>
   <si>
     <t>The data used in this research are companies listed on the Indonesia Stock Exchange (IDX) as the research population. The data are sourced from the annual report of companies, the database of IDX, and the website of companies. Samples were selected by non-probability method i.e. purposive sampling. To be selected, a sample should meet several criteria as follows: (1) selected companies are listed for the years of 2016-2018 consecutively on the IDX; (2) they should have complete data which is needed; (3) they are non included in the financial industry. 
@@ -944,6 +1007,39 @@
     <t>We previously charged an APC of IDR 750,000 (for Indonesian authors) and USD 50 (for foreign authors) per article published in our journal. Starting February 20, 2025, the APC will be slightly increased to IDR 1,000,000 for Indonesian authors) and USD 65 (for foreign authors). Link: https://journal.uii.ac.id/JCA/APC</t>
   </si>
   <si>
+    <t>CORPORATE FINANCIAL VULNERABILITY AND TAX AGGRESSIVENESS:EVIDENCE FROM INDONESIAN CONSUMER FIRMS</t>
+  </si>
+  <si>
+    <t>Mardiana Lestari; Lin Oktris; Faith Njaramba; Zubir Azhar</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF CONTEMPORARY ACCOUNTING</t>
+  </si>
+  <si>
+    <t>26858568</t>
+  </si>
+  <si>
+    <t>https://e-journal.trisakti.ac.id/index.php/ijca/article/view/22891</t>
+  </si>
+  <si>
+    <t>financial distress; institutional ownership; leverage; tax avoidance; emerging markets</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/8310</t>
+  </si>
+  <si>
+    <t>This study employs multiple linear regression analysis to examine the relationship between the independent variables and tax avoidance. The analysis was conducted using SPSS version 26 software.</t>
+  </si>
+  <si>
+    <t>The population of this study consists of all non-cyclical consumer companies listed on the Indonesia Stock Exchange during the observation period. The non-cyclical consumer sector includes companies engaged in the production and distribution of essential goods such as food and beverages, household products, tobacco, and pharmaceuticals. These companies typically exhibit more stable revenue patterns compared to cyclical sectors, making them an ideal context for examining how firm-specific factors rather than macroeconomic volatility drive tax avoidance decisions. Sample selection employed purposive sampling with specific criteria designed to ensure data quality and comparability. First, companies must have been continuously listed on the Indonesia Stock Exchange throughout the entire 2019-2023 period to provide complete panel data</t>
+  </si>
+  <si>
+    <t>financial distress; institutional ownership; leverage; tax avoidance</t>
+  </si>
+  <si>
+    <t>2. Article Processing Charge (APC); International Journal of Contemporary Accounting has an open access policy, for which the author must be responsible for paying the article processing charge (APC), which covers the fees for peer review management, journal productions, online hosting, and long-term archiving. APC will charge after the article status: ACCEPTED, but it does not affect the peer review process. APC in the journal are: National author: Rp. 1.000,000,- International author: USD 0. Link: https://e-journal.trisakti.ac.id/index.php/ijca/JournalBusinessModel</t>
+  </si>
+  <si>
     <t>The effects of information content of cash flow statement, dividend payout ratio, economic value added and corporate social responsibility on stock trading volume</t>
   </si>
   <si>
@@ -1055,6 +1151,75 @@
   </si>
   <si>
     <t>Article Processing Charges; To support this open access journal, we have an honorary charge for publication of an accepted manuscript USD 175 or IDR 2.500.000; link: https://dinastipub.org/DIJEFA/Article-Processing-Charges</t>
+  </si>
+  <si>
+    <t>Book tax difference and Thin capitalization as Determinants of Tax Avoidance: Empirical Evidence of Manufacturing Companies</t>
+  </si>
+  <si>
+    <t>Tina Fitriyah; Ira Hasti Priyadi; Anni Muslimah Purnamawati</t>
+  </si>
+  <si>
+    <t>Sharia Finance and Accounting Journal</t>
+  </si>
+  <si>
+    <t>27973484</t>
+  </si>
+  <si>
+    <t>https://ejournal.iainmadura.ac.id/index.php/shafin/article/view/20903</t>
+  </si>
+  <si>
+    <t>agency theory; book tax difference; manufacturing Company; tax avoidance; thin capitalization</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/11336</t>
+  </si>
+  <si>
+    <t>The data analysis technique used in this study is multiple linear regression analysis. This method was chosen to test the effect of the independent variables Book tax difference and Thin capitalization on the dependent variables Tax avoidance, both simultaneously (F-test) and partially (t-test). The analysis was performed using the statistical software package SPSS. Before conducting the hypothesis testing, classical assumption tests were performed to ensure the regression model is valid and meets the Best Linear Unbiased Estimator (BLUE) criteria. These tests include normality test, multicollinearity test, heteroscedasticity test and autocorrelation test.</t>
+  </si>
+  <si>
+    <t>The sample consists of manufacturing companies in the health and technology sectors listed on the Indonesia Stock Exchange for the 2022-2024 period, selected through purposive sampling. Data were analyzed using multiple linear regression.</t>
+  </si>
+  <si>
+    <t>tax avoidance; book tax different; thin capitalization</t>
+  </si>
+  <si>
+    <t>Article Submission: 0.00 (IDR); Article Publication: 400.000 (IDR); Link: https://ejournal.iainmadura.ac.id/index.php/shafin/publicationfees</t>
+  </si>
+  <si>
+    <t>Do Profits Drive Tax Behavior? An Empirical Analysis of CSR and Green Accounting in the Tax Avoidance Landscape</t>
+  </si>
+  <si>
+    <t>Deviyanti Sofia Rachman; Sofie Yunida Putri</t>
+  </si>
+  <si>
+    <t>Economics, Business, Accounting &amp; Society Review</t>
+  </si>
+  <si>
+    <t>28100115</t>
+  </si>
+  <si>
+    <t>https://ecsis.org/index.php/ebasr/article/view/216</t>
+  </si>
+  <si>
+    <t>Financial Performance; Green Accounting; CSR; Tax Avoidance</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/15070</t>
+  </si>
+  <si>
+    <t>Source: Data processed by researchers using Eviews 13, 2025; 3.2 Panel Data Regression Model Selections; a) Sobel Mediator Test; Table 5. The result of the Sobel mediator test</t>
+  </si>
+  <si>
+    <t>panel data regression; sobel mediator test</t>
+  </si>
+  <si>
+    <t>This study aims to analyze the influence of financial performance and green accounting on tax avoidance with Corporate Social Responsibility (CSR) as a mediating variable in companies in the consumer goods industry sector on the IDX in 2020-2023. A total of 30 companies in the consumer goods industry sector were obtained as samples for this study using purposive-sampling techniques.</t>
+  </si>
+  <si>
+    <t>financial performance; green accounting; corporate social responsibility; tax avoidance</t>
+  </si>
+  <si>
+    <t>*No hard copy is included in the publication charge. All authors from Indonesia IDR 1.500.000; All authors from Abroad; IDR 0 (FREE); Collaborative authors (Indonesia + Abroad); IDR 0 (FREE); Fast Track review service; If you do not have funds to pay such fees, you will have an opportunity to waive each fee. We do not want fees to prevent the publication of worthy work. Link: https://ecsis.org/index.php/ebasr/Fee_Submission</t>
   </si>
   <si>
     <t>The influence of sustainability reporting and green accounting on financial performance of mining companies listed on the Indonesia stock exchange for the 2021-2023 period</t>
@@ -1171,8 +1336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U30" totalsRowShown="0">
-  <autoFilter ref="A1:U30" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U35" totalsRowShown="0">
+  <autoFilter ref="A1:U35" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title of Article"/>
@@ -1479,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -2111,13 +2276,13 @@
         <v>141</v>
       </c>
       <c r="D12">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="s">
         <v>142</v>
@@ -2132,28 +2297,28 @@
         <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="L12" t="s">
         <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
         <v>147</v>
       </c>
       <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s">
         <v>148</v>
       </c>
-      <c r="P12" t="s">
+      <c r="T12" t="s">
         <v>149</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>150</v>
-      </c>
-      <c r="U12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2161,10 +2326,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
         <v>152</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -2176,40 +2341,40 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
         <v>154</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>155</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>156</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
         <v>157</v>
       </c>
-      <c r="K13" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
         <v>158</v>
       </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>159</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>160</v>
       </c>
-      <c r="P13" t="s">
+      <c r="T13" t="s">
         <v>161</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>162</v>
-      </c>
-      <c r="U13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2217,49 +2382,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" t="s">
         <v>164</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>2025</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
         <v>165</v>
       </c>
-      <c r="D14">
-        <v>2026</v>
-      </c>
-      <c r="E14">
+      <c r="H14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" t="s">
         <v>27</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>166</v>
-      </c>
-      <c r="H14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J14" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>170</v>
       </c>
-      <c r="M14" t="s">
-        <v>80</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>171</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>172</v>
-      </c>
-      <c r="P14" t="s">
-        <v>171</v>
       </c>
       <c r="T14" t="s">
         <v>173</v>
@@ -2282,46 +2447,40 @@
         <v>2025</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="I15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O15" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="T15" t="s">
-        <v>182</v>
-      </c>
-      <c r="U15" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2329,55 +2488,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D16">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H16" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="N16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="T16" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2385,55 +2544,55 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I17" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J17" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K17" t="s">
         <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s">
+        <v>202</v>
+      </c>
+      <c r="O17" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" t="s">
+        <v>203</v>
+      </c>
+      <c r="T17" t="s">
+        <v>204</v>
+      </c>
+      <c r="U17" t="s">
         <v>196</v>
-      </c>
-      <c r="O17" t="s">
-        <v>197</v>
-      </c>
-      <c r="P17" t="s">
-        <v>198</v>
-      </c>
-      <c r="T17" t="s">
-        <v>199</v>
-      </c>
-      <c r="U17" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2441,55 +2600,55 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D18">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H18" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J18" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
         <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s">
         <v>43</v>
       </c>
       <c r="N18" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="O18" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="T18" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="U18" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2497,52 +2656,55 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D19">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H19" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>192</v>
+      </c>
+      <c r="M19" t="s">
+        <v>217</v>
       </c>
       <c r="N19" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="T19" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="U19" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2550,55 +2712,55 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D20">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="I20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
         <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s">
         <v>43</v>
       </c>
       <c r="N20" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="T20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="U20" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2606,55 +2768,52 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D21">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E21">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="I21" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
         <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>230</v>
-      </c>
-      <c r="M21" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="N21" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O21" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T21" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="U21" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2662,25 +2821,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D22">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="H22" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="I22" t="s">
         <v>239</v>
@@ -2692,25 +2851,25 @@
         <v>41</v>
       </c>
       <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
         <v>241</v>
       </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>242</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>243</v>
-      </c>
-      <c r="P22" t="s">
-        <v>242</v>
       </c>
       <c r="T22" t="s">
         <v>244</v>
       </c>
       <c r="U22" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2718,55 +2877,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" t="s">
         <v>246</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" t="s">
         <v>248</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>249</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>250</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
         <v>251</v>
       </c>
-      <c r="K23" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>80</v>
+      </c>
+      <c r="N23" t="s">
         <v>252</v>
       </c>
-      <c r="M23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>253</v>
-      </c>
-      <c r="O23" t="s">
-        <v>243</v>
       </c>
       <c r="P23" t="s">
         <v>254</v>
       </c>
       <c r="T23" t="s">
+        <v>250</v>
+      </c>
+      <c r="U23" t="s">
         <v>255</v>
-      </c>
-      <c r="U23" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2774,55 +2933,55 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" t="s">
         <v>257</v>
-      </c>
-      <c r="C24" t="s">
-        <v>258</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H24" t="s">
         <v>259</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>260</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>261</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
         <v>262</v>
-      </c>
-      <c r="K24" t="s">
-        <v>99</v>
-      </c>
-      <c r="L24" t="s">
-        <v>263</v>
       </c>
       <c r="M24" t="s">
         <v>27</v>
       </c>
       <c r="N24" t="s">
+        <v>263</v>
+      </c>
+      <c r="O24" t="s">
         <v>264</v>
       </c>
-      <c r="O24" t="s">
-        <v>102</v>
-      </c>
       <c r="P24" t="s">
+        <v>263</v>
+      </c>
+      <c r="T24" t="s">
         <v>265</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>266</v>
-      </c>
-      <c r="U24" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2830,52 +2989,55 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" t="s">
         <v>268</v>
-      </c>
-      <c r="C25" t="s">
-        <v>269</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
+        <v>269</v>
+      </c>
+      <c r="H25" t="s">
         <v>270</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>271</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>272</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L25" t="s">
         <v>273</v>
       </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
         <v>274</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
+        <v>264</v>
+      </c>
+      <c r="P25" t="s">
         <v>275</v>
       </c>
-      <c r="O25" t="s">
+      <c r="T25" t="s">
         <v>276</v>
       </c>
-      <c r="P25" t="s">
+      <c r="U25" t="s">
         <v>277</v>
-      </c>
-      <c r="T25" t="s">
-        <v>278</v>
-      </c>
-      <c r="U25" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2883,55 +3045,55 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26">
+        <v>2025</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
         <v>280</v>
       </c>
-      <c r="C26" t="s">
+      <c r="H26" t="s">
         <v>281</v>
       </c>
-      <c r="D26">
-        <v>2021</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>282</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>283</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" t="s">
         <v>284</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
         <v>285</v>
       </c>
-      <c r="K26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="O26" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" t="s">
         <v>286</v>
       </c>
-      <c r="M26" t="s">
-        <v>43</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="T26" t="s">
         <v>287</v>
       </c>
-      <c r="O26" t="s">
+      <c r="U26" t="s">
         <v>288</v>
-      </c>
-      <c r="P26" t="s">
-        <v>287</v>
-      </c>
-      <c r="T26" t="s">
-        <v>289</v>
-      </c>
-      <c r="U26" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2939,55 +3101,52 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D27">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
+        <v>291</v>
+      </c>
+      <c r="H27" t="s">
+        <v>292</v>
+      </c>
+      <c r="I27" t="s">
         <v>293</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>294</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" t="s">
         <v>295</v>
       </c>
-      <c r="J27" t="s">
+      <c r="N27" t="s">
         <v>296</v>
       </c>
-      <c r="K27" t="s">
-        <v>41</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="O27" t="s">
         <v>297</v>
-      </c>
-      <c r="M27" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27" t="s">
-        <v>298</v>
-      </c>
-      <c r="O27" t="s">
-        <v>299</v>
       </c>
       <c r="P27" t="s">
         <v>298</v>
       </c>
       <c r="T27" t="s">
+        <v>299</v>
+      </c>
+      <c r="U27" t="s">
         <v>300</v>
-      </c>
-      <c r="U27" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -2995,55 +3154,55 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" t="s">
         <v>302</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28">
+        <v>2025</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
         <v>303</v>
       </c>
-      <c r="D28">
-        <v>2026</v>
-      </c>
-      <c r="E28">
-        <v>6</v>
-      </c>
-      <c r="F28">
-        <v>6</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>304</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>305</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>306</v>
-      </c>
-      <c r="J28" t="s">
-        <v>307</v>
       </c>
       <c r="K28" t="s">
         <v>99</v>
       </c>
       <c r="L28" t="s">
+        <v>307</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" t="s">
         <v>308</v>
       </c>
-      <c r="M28" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="s">
         <v>309</v>
       </c>
-      <c r="O28" t="s">
+      <c r="T28" t="s">
         <v>310</v>
       </c>
-      <c r="P28" t="s">
+      <c r="U28" t="s">
         <v>311</v>
-      </c>
-      <c r="T28" t="s">
-        <v>312</v>
-      </c>
-      <c r="U28" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3051,55 +3210,55 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D29">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
+        <v>314</v>
+      </c>
+      <c r="H29" t="s">
+        <v>315</v>
+      </c>
+      <c r="I29" t="s">
         <v>316</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>317</v>
-      </c>
-      <c r="I29" t="s">
-        <v>318</v>
-      </c>
-      <c r="J29" t="s">
-        <v>319</v>
       </c>
       <c r="K29" t="s">
         <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M29" t="s">
         <v>43</v>
       </c>
       <c r="N29" t="s">
+        <v>319</v>
+      </c>
+      <c r="O29" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" t="s">
+        <v>319</v>
+      </c>
+      <c r="T29" t="s">
         <v>321</v>
       </c>
-      <c r="O29" t="s">
+      <c r="U29" t="s">
         <v>322</v>
-      </c>
-      <c r="P29" t="s">
-        <v>323</v>
-      </c>
-      <c r="T29" t="s">
-        <v>324</v>
-      </c>
-      <c r="U29" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3107,37 +3266,37 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D30">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H30" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I30" t="s">
+        <v>327</v>
+      </c>
+      <c r="J30" t="s">
         <v>328</v>
-      </c>
-      <c r="J30" t="s">
-        <v>329</v>
       </c>
       <c r="K30" t="s">
         <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s">
         <v>43</v>
@@ -3146,16 +3305,296 @@
         <v>330</v>
       </c>
       <c r="O30" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="P30" t="s">
         <v>330</v>
       </c>
       <c r="T30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="U30" t="s">
-        <v>325</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>335</v>
+      </c>
+      <c r="D31">
+        <v>2026</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" t="s">
+        <v>337</v>
+      </c>
+      <c r="I31" t="s">
+        <v>338</v>
+      </c>
+      <c r="J31" t="s">
+        <v>339</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s">
+        <v>340</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" t="s">
+        <v>341</v>
+      </c>
+      <c r="O31" t="s">
+        <v>342</v>
+      </c>
+      <c r="P31" t="s">
+        <v>343</v>
+      </c>
+      <c r="T31" t="s">
+        <v>344</v>
+      </c>
+      <c r="U31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32">
+        <v>2025</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>348</v>
+      </c>
+      <c r="H32" t="s">
+        <v>349</v>
+      </c>
+      <c r="I32" t="s">
+        <v>350</v>
+      </c>
+      <c r="J32" t="s">
+        <v>351</v>
+      </c>
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" t="s">
+        <v>352</v>
+      </c>
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" t="s">
+        <v>353</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s">
+        <v>354</v>
+      </c>
+      <c r="T32" t="s">
+        <v>355</v>
+      </c>
+      <c r="U32" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C33" t="s">
+        <v>358</v>
+      </c>
+      <c r="D33">
+        <v>2025</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>359</v>
+      </c>
+      <c r="H33" t="s">
+        <v>360</v>
+      </c>
+      <c r="I33" t="s">
+        <v>361</v>
+      </c>
+      <c r="J33" t="s">
+        <v>362</v>
+      </c>
+      <c r="K33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L33" t="s">
+        <v>363</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>364</v>
+      </c>
+      <c r="O33" t="s">
+        <v>365</v>
+      </c>
+      <c r="P33" t="s">
+        <v>366</v>
+      </c>
+      <c r="T33" t="s">
+        <v>367</v>
+      </c>
+      <c r="U33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" t="s">
+        <v>370</v>
+      </c>
+      <c r="D34">
+        <v>2025</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>371</v>
+      </c>
+      <c r="H34" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" t="s">
+        <v>373</v>
+      </c>
+      <c r="J34" t="s">
+        <v>374</v>
+      </c>
+      <c r="K34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>375</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34" t="s">
+        <v>376</v>
+      </c>
+      <c r="O34" t="s">
+        <v>377</v>
+      </c>
+      <c r="P34" t="s">
+        <v>378</v>
+      </c>
+      <c r="T34" t="s">
+        <v>379</v>
+      </c>
+      <c r="U34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35">
+        <v>2025</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>371</v>
+      </c>
+      <c r="H35" t="s">
+        <v>372</v>
+      </c>
+      <c r="I35" t="s">
+        <v>383</v>
+      </c>
+      <c r="J35" t="s">
+        <v>384</v>
+      </c>
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s">
+        <v>375</v>
+      </c>
+      <c r="M35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35" t="s">
+        <v>385</v>
+      </c>
+      <c r="O35" t="s">
+        <v>377</v>
+      </c>
+      <c r="P35" t="s">
+        <v>385</v>
+      </c>
+      <c r="T35" t="s">
+        <v>386</v>
+      </c>
+      <c r="U35" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/myapp/data_idx_gabung.xlsx
+++ b/myapp/data_idx_gabung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT APLIKASI SHINY IDX 2026\SHINY FOR IDX\myapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58B850ED-D207-4738-A4E5-4F1170C6DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74AEF7CD-831F-46B2-82C0-2D69411273FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="474">
   <si>
     <t>No</t>
   </si>
@@ -329,6 +329,45 @@
     <t>government ownership; institutional ownership; ownership concentration; sustainability reporting; return on assets; return on equity</t>
   </si>
   <si>
+    <t>UKURAN PERUSAHAAN SEBAGAI VARIABEL MODERASI: DAMPAK PROFITABILITAS DAN PERTUMBUHAN PENJUALAN TERHADAP AGRESIVITAS PAJAK</t>
+  </si>
+  <si>
+    <t>Reza Muhammad Rizqi; Arya Zulfikar Akbar; Fahlia Fahlia</t>
+  </si>
+  <si>
+    <t>Jurnal ULTIMA Accounting</t>
+  </si>
+  <si>
+    <t>25415476</t>
+  </si>
+  <si>
+    <t>https://ejournals.umn.ac.id/index.php/Akun/article/view/4182</t>
+  </si>
+  <si>
+    <t>Tax Aggressiveness; Sales Growth; Profitability; Company Size; Tax Regulation</t>
+  </si>
+  <si>
+    <t>Sinta 3</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/4286</t>
+  </si>
+  <si>
+    <t>Eviews 12</t>
+  </si>
+  <si>
+    <t>This study analyzes the impact of profitability and sales growth on tax aggressiveness, using company size as a moderating variable. The primary issue addressed is the tax aggressiveness practiced by consumer goods companies listed on the Indonesia Stock Exchange (IDX). The sample includes consumer goods companies listed on the IDX from 2021 to 2023. Using purposive sampling, 174 data points were collected from 58 companies over three years. Multiple regression analysis was conducted using EViews 12.</t>
+  </si>
+  <si>
+    <t>This study analyzes the impact of profitability and sales growth on tax aggressiveness, using company size as a moderating variable. The primary issue addressed is the tax aggressiveness practiced by consumer goods companies listed on the Indonesia Stock Exchange (IDX).</t>
+  </si>
+  <si>
+    <t>profitabilitas; pertumbuhan penjualan; ukuran perusahaan; agresivitas pajak</t>
+  </si>
+  <si>
+    <t>Author Fees; This journal charges the following author fees. Article Submission: 0.00 (IDR) Authors are not required to pay for Article Submission Fee. Article Publication: 0,00 (IDR) for Indonesian author(s) 0,00 (USD) for non-Indonesian author(s); Authors are not required to pay for Article Publication Fee</t>
+  </si>
+  <si>
     <t>Artificial Intelligence in The Application of ESG to Improve Company Reputation: The Moderating Role of Financial Performance</t>
   </si>
   <si>
@@ -347,9 +386,6 @@
     <t>artificial intelligence; esg; corporate reputation; financial performance; moderation</t>
   </si>
   <si>
-    <t>Sinta 3</t>
-  </si>
-  <si>
     <t>https://sinta.kemdiktisaintek.go.id/journals/profile/2299</t>
   </si>
   <si>
@@ -363,6 +399,63 @@
   </si>
   <si>
     <t>Article Processing Charge; JAS is an open access international journal. Since manuscript submission for Volume 9 number 1 January 2025, author(s) pay some processing fees IDR 850.000. The  APC should be paid in 3 days max after the acceptance of manuscript. Link: https://jas.umsida.ac.id/index.php/jas/authorfees</t>
+  </si>
+  <si>
+    <t>Green Accounting as a Sustainability Mechanism Moderating Financial Statement Fraud in the Fraud Pentagon Context: A Study from Indonesia</t>
+  </si>
+  <si>
+    <t>Maulina Permatasari; Vista Yulianti</t>
+  </si>
+  <si>
+    <t>Journal of Applied Accounting and Taxation</t>
+  </si>
+  <si>
+    <t>25489925</t>
+  </si>
+  <si>
+    <t>https://jurnal.polibatam.ac.id/index.php/JAAT/article/view/11061</t>
+  </si>
+  <si>
+    <t>Arrogance; Collusion; Financial Statement Fraud; Fraud Pentagon; Green Accounting; Pressure; Rationalization; Sustainability</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/3898</t>
+  </si>
+  <si>
+    <t>SmartPLS</t>
+  </si>
+  <si>
+    <t>The study uses a quantitative approach, drawing on data from manufacturing companies listed on the Indonesia Stock Exchange from 2021 to 2024. Data were collected through financial report analysis and questionnaires. Analysis used Partial Least Squares Structural Equation Modeling (PLS-SEM) to assess both measurement and structural models. Data were analyzed using Partial Least Squares Structural Equation Modeling (PLS-SEM) with SmartPLS 4.0.</t>
+  </si>
+  <si>
+    <t>partial least squares structural equation modeling (PLS-SEM)</t>
+  </si>
+  <si>
+    <t>pressure; opportunity; rationalization; capability; arrogance; collusion; green accounting; financial statement fraud</t>
+  </si>
+  <si>
+    <t>Article Processing Charges (APCs); Every article submitted to Journal of Applied Accounting and Taxation will not have any Article Processing Charges (APCs). This includes peer reviewing, editing, publishing, maintaining, archiving, and allow to the full text versions of the articles for free. Link: https://jurnal.polibatam.ac.id/index.php/JAAT/APCs</t>
+  </si>
+  <si>
+    <t>Enhancing Corporate Integrity: Profitability, Transfer Pricing, and Tax Avoidance with the Role of Bonus Mechanisms and Stewardship Theory</t>
+  </si>
+  <si>
+    <t>Dian Sulistyorini Wulandari; Vista Yulianti; Agus Fuadi</t>
+  </si>
+  <si>
+    <t>https://jurnal.polibatam.ac.id/index.php/JAAT/article/view/11053</t>
+  </si>
+  <si>
+    <t>transfer pricing; bonus mechanism; tax avoidance; profitability; stewardship theory</t>
+  </si>
+  <si>
+    <t>A quantitative approach was used with secondary data from the financial reports of industrial sector companies listed on the Indonesia Stock Exchange (IDX) during 2020–2022. The sample was selected through purposive sampling, consisting of 21 companies. Panel data regression analysis was conducted using the Ordinary Least Squares (OLS) method, supported by Chow, Hausman, and Lagrange Multiplier (LM) tests to determine the most appropriate model.</t>
+  </si>
+  <si>
+    <t>panel data regression; moderating</t>
+  </si>
+  <si>
+    <t>Transfer Pricing; Bonus Mechanism; Tax Avoidance; Profitability</t>
   </si>
   <si>
     <t>Analysis of the Influence of Profitability, Company Size, Leverage, and Sales Growth on Tax Avoidance</t>
@@ -726,9 +819,6 @@
     <t>fraudulent financial reporting; financial distress; financial targets; audit quality</t>
   </si>
   <si>
-    <t>SmartPLS</t>
-  </si>
-  <si>
     <t>Data processing in this study employed the Partial Least Square (PLS) method. PLS is an alternative method of analysis with Structural Equation Modeling (SEM) based on variance. The purpose of PLS is to help researchers confirm theories and explain whether there is a relationship between latent variables (Hair et al., 2022). The advantages of this method are that it does not require assumptions and can be estimated with a relatively small number of samples, i.e., 30 to 100. As in this study, the number of samples was 46. In addition, SmartPLS is designed to estimate structural equations based on variance. PLS is a powerful analytical method because it is not based on many assumptions. For example, the data must be normally distributed; the sample must not be large. Besides confirming the theory, PLS can be used to explain whether there is a relationship between latent variables (Busru et al., 2022). 
 Convergent validity is an indicator measured based on the correlation between item/component and construct scores. If the correlation between individual measurements and the structure to be measured is &gt; 0.7, it is considered high (Ghozali &amp; Latan, 2015). Based on the data processing results utilizing the smartPLS software, the seven indicators had a weights factor value greater than 0.7. The contribution between constructs with indicators or outer model values has met convergent validity.</t>
   </si>
@@ -1117,6 +1207,42 @@
 Link: https://ilomata.org/index.php/ijtc/apc#apc</t>
   </si>
   <si>
+    <t>Pengaruh Likuiditas, Komite Audit dan Leverage Terhadap Ketepatwaktuan Publikasi Laporan Keuangan</t>
+  </si>
+  <si>
+    <t>Uci Damayanti; Rusliyawati Rusliyawati; Syarbini Ikhsan</t>
+  </si>
+  <si>
+    <t>Journal of Accounting and Finance Management</t>
+  </si>
+  <si>
+    <t>27213013</t>
+  </si>
+  <si>
+    <t>https://dinastires.org/JAFM/article/view/2134</t>
+  </si>
+  <si>
+    <t>Timeliness of Financial Report Publication; Liquidity; Audit Committee; Leverage</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/12026</t>
+  </si>
+  <si>
+    <t>Penelitian ini melakukan banyak pengujian dengan menggunakan perangkat lunak EViews 12 dan analisis regresi logistik dengan metode binary logit</t>
+  </si>
+  <si>
+    <t>regresi logistik; binary logit</t>
+  </si>
+  <si>
+    <t>What this study looked at were Property and Real Estate companies that went public on the Indonesia Stock Exchange between 2021 and 2024. For the study, the quantitative method was used. There was secondary material used. It was taken from the annual reports of companies on the Indonesia Stock Exchange (IDX) for the years 2021 though 2024. The deliberate sampling method was used to get the group together. Gathering linked data is one way to process data with Eviews version 12.</t>
+  </si>
+  <si>
+    <t>ketepatwaktuan publikasi laporan keuangan; likuiditas; komite audit; leverage</t>
+  </si>
+  <si>
+    <t>Article Processing Charges; To support this open access journal, we have an honorary charge for publication of an accepted manuscript: USD 175 or IDR 2.500.000. Link https://dinastires.org/jafm/article-processing</t>
+  </si>
+  <si>
     <t>Transfer Pricing in the Spotlight: An Analysis of the Role of Taxes, Profitability, Tunneling Incentives, and Independent Commissioners</t>
   </si>
   <si>
@@ -1153,6 +1279,78 @@
     <t>Article Processing Charges; To support this open access journal, we have an honorary charge for publication of an accepted manuscript USD 175 or IDR 2.500.000; link: https://dinastipub.org/DIJEFA/Article-Processing-Charges</t>
   </si>
   <si>
+    <t>The interlink between capital structure, sales growth, and sustainable growth rate: Comparative insights from IDX Growth and IDX Sharia Growth</t>
+  </si>
+  <si>
+    <t>William Ben Gunawan</t>
+  </si>
+  <si>
+    <t>Klabat Accounting Review</t>
+  </si>
+  <si>
+    <t>27227278</t>
+  </si>
+  <si>
+    <t>https://ejournal.unklab.ac.id/index.php/kar/article/view/1337</t>
+  </si>
+  <si>
+    <t>Capital Structure; Sales Growth; Sustainable Growth Rate; IDX Growth; IDX Sharia Growth</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/12875</t>
+  </si>
+  <si>
+    <t>All statistical analyses were conducted using the Statistical Package for Social Sciences (SPSS) version 25. The choice of SPSS is due to its user-friendly interface, robust capabilities for regression analysis, and wide acceptance in social sciences research. SPSS also facilitates the execution of diagnostic tests and data transformation, making it suitable for this study's analytical needs.</t>
+  </si>
+  <si>
+    <t>regression analysis; independent t-test</t>
+  </si>
+  <si>
+    <t>This study investigates the factors influencing the SGR of companies listed in the IDX Growth 30 and IDX Sharia Growth indices, focusing on the roles of CS and SG.</t>
+  </si>
+  <si>
+    <t>Capital Structure; Sales Growth; Sustainable Growth Rate; Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <t>Article Processing Charges. Klabat Accounting Review (KAR) is an open-access journal that does not charge any fees at any stage of the publication process. free of Charge Policy. No Submission Fees: Authors can submit manuscripts without any payment or submission charge. No Article Processing Charges (APC): There are no costs for article review, editing, or publication. No Access Fees: All published articles are freely available to readers worldwide without subscription or download fees. Link: https://ejournal.unklab.ac.id/index.php/kar/ArticleProcessingCharges</t>
+  </si>
+  <si>
+    <t>THE CEO OVERCONFIDENCE, INDUSTRY CHARACTERISTICS, AND FOREIGN OWNERSHIP: THEIR EFFECTS ON ESG DISCLOSURE</t>
+  </si>
+  <si>
+    <t>Shendy Gavriel Alexander; Tigor Tambunan</t>
+  </si>
+  <si>
+    <t>Journal of Applied Finance &amp; Accounting</t>
+  </si>
+  <si>
+    <t>27466019</t>
+  </si>
+  <si>
+    <t>https://journal.binus.ac.id/index.php/JAFA/article/view/13976</t>
+  </si>
+  <si>
+    <t>CEO overconfidence; industry characteristics; foreign ownership; ESG disclosure</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/11756</t>
+  </si>
+  <si>
+    <t>EViews</t>
+  </si>
+  <si>
+    <t>This study uses the population of non-financial sector companies listed on the IDX from 2019 to 2022. Sampling from the existing population will be conducted using a purposive sampling technique based on the following criteria: The criteria used for sample determination are as follows: Non-financial companies listed on the IDX between 2019 and 2022. Indonesian companies with consecutive ESG scores on the Bloomberg Terminal from 2019 to 2022. Indonesian companies with complete data on the research variables</t>
+  </si>
+  <si>
+    <t>The normality test was conducted using the Jarque-Bera test, assisted by EViews 9 software. Based on the t-test, the following multiple regression equation model was used:</t>
+  </si>
+  <si>
+    <t>esg disclosure; ceo overconfidence; industry characteristics; foreign ownership</t>
+  </si>
+  <si>
+    <t>Article Processing Charge: The publication of accepted articles is completely free of Article Processing Charges (APC). Authors will not incur any fees at any stage of the submission, review, or publication process. This policy reflects our commitment to promoting the open dissemination of scholarly work, ensuring equal opportunities for researchers worldwide without financial barriers, while maintaining a rigorous peer-review process to uphold academic excellence. Link: https://journal.binus.ac.id/index.php/JAFA/about</t>
+  </si>
+  <si>
     <t>Book tax difference and Thin capitalization as Determinants of Tax Avoidance: Empirical Evidence of Manufacturing Companies</t>
   </si>
   <si>
@@ -1186,6 +1384,39 @@
     <t>Article Submission: 0.00 (IDR); Article Publication: 400.000 (IDR); Link: https://ejournal.iainmadura.ac.id/index.php/shafin/publicationfees</t>
   </si>
   <si>
+    <t>PENGARUH KOMITE AUDIT, AUDIT INTERNAL, DAN DEWAN KOMISARIS INDEPENDEN TERHADAP KINERJA KEUANGAN PADA PERUSAHAAN PERBANKAN TERDAFTAR DI BEI PERIODE 2020-2024</t>
+  </si>
+  <si>
+    <t>Novi Kirana; Zulmita; karsam</t>
+  </si>
+  <si>
+    <t>The Indonesian Journal of Management &amp; Accounting</t>
+  </si>
+  <si>
+    <t>28072804</t>
+  </si>
+  <si>
+    <t>https://ejurnal.latansamashiro.ac.id/index.php/JSAB/article/view/1503</t>
+  </si>
+  <si>
+    <t>Audit Committee; Internal Audit; Independent Board of Commissioners; Financial Performance</t>
+  </si>
+  <si>
+    <t>https://sinta.kemdiktisaintek.go.id/journals/profile/10932</t>
+  </si>
+  <si>
+    <t>Analisis data merupakan hal terpenting dalam proses penelitian, analisis data dalam penelitian ini dibantu dengan software SPSS 27 for Mac. Adapun pengujiannya menggunakan uji asumsi klasik, regresi, dan uji hipotesis. Utilizing a quantitative design, secondary data from the annual reports of 26 companies (2020 to 2024), yielding 130 data points, were analyzed using multiple linear regression.</t>
+  </si>
+  <si>
+    <t>Penelitian ini merupakan penelitian kuantitatif dengan menggunakan data sekunder yang diperoleh dari laporan tahunan perusahaan. Sumber data didapatkan melalui website resmi Bursa Efek Indonesia (BEI) yaitu www.idx.co.id atau website resmi perusahaan. Data yang diambil selama periode 5 tahun, pada sektor perbankan di tahun 2020-2024. Populasi dalam penelitian ini adalah perusahaan sektor perbankan di Bursa Efek Indonesia (BEI) yang memiliki kualitas dan karakteristik tertentu yang ditetapkan oleh penliti sebanyak 47 perusahaan.</t>
+  </si>
+  <si>
+    <t>audit committee; internal audit; independent board of commissioners; financial performance</t>
+  </si>
+  <si>
+    <t>Every accepted manuscript, will be published in open-access journal system of STIE La Tansa Mashiro. Author who its manuscript is published, won't get fee from publisher. Unaccepted manuscript able to submitted to another relevant journal.</t>
+  </si>
+  <si>
     <t>Do Profits Drive Tax Behavior? An Empirical Analysis of CSR and Green Accounting in the Tax Avoidance Landscape</t>
   </si>
   <si>
@@ -1220,6 +1451,36 @@
   </si>
   <si>
     <t>*No hard copy is included in the publication charge. All authors from Indonesia IDR 1.500.000; All authors from Abroad; IDR 0 (FREE); Collaborative authors (Indonesia + Abroad); IDR 0 (FREE); Fast Track review service; If you do not have funds to pay such fees, you will have an opportunity to waive each fee. We do not want fees to prevent the publication of worthy work. Link: https://ecsis.org/index.php/ebasr/Fee_Submission</t>
+  </si>
+  <si>
+    <t>The Influence of Intellectual Capital and Working Capital Management on Financial Distress and its Impact on Stock Returns</t>
+  </si>
+  <si>
+    <t>Ni Made Siti Ambarawati; Gede Adi Yuniarta; Desak Nyoman Sri Werastuti</t>
+  </si>
+  <si>
+    <t>Amkop Management Accounting Review</t>
+  </si>
+  <si>
+    <t>28282248</t>
+  </si>
+  <si>
+    <t>https://ojs.stieamkop.ac.id/index.php/amar/article/view/3305</t>
+  </si>
+  <si>
+    <t>Intellectual Capital; Working Capital Management; Financial Distress; Stock Returns</t>
+  </si>
+  <si>
+    <t>The population in this study consisted of technology sector companies listed on the Indonesia Stock Exchange in 2021-2023, totaling 29 units. The number of samples was determined using a purposive sampling technique to obtain 24 companies that met the criteria. Data analysis used SEM (Structural Equation Modeling) assisted by Stata 14 software.</t>
+  </si>
+  <si>
+    <t>structural equation modeling</t>
+  </si>
+  <si>
+    <t>financial distress; intellectual capital; working capital management; company size; stock return; good corporate governance</t>
+  </si>
+  <si>
+    <t>Author Fees; Article Submission: 0.00 (IDR) Authors are not required to pay an article submission fee. Article Publication: a. FREE OF CHARGE will be available for paper submission of authors outside the country of Indonesia; b. Indonesian Author(s) in collaboration with Author(s) from other country: IDR 1,000,000; c. All Indonesian Authors: IDR 1,500,000. Link: https://ojs.stieamkop.ac.id/index.php/amar/AuthorFees</t>
   </si>
   <si>
     <t>The influence of sustainability reporting and green accounting on financial performance of mining companies listed on the Indonesia stock exchange for the 2021-2023 period</t>
@@ -1336,8 +1597,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U35" totalsRowShown="0">
-  <autoFilter ref="A1:U35" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:U43" totalsRowShown="0">
+  <autoFilter ref="A1:U43" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title of Article"/>
@@ -1644,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,10 +2313,10 @@
         <v>94</v>
       </c>
       <c r="D8">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2079,22 +2340,22 @@
         <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -2102,13 +2363,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -2117,25 +2378,25 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
         <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
         <v>113</v>
@@ -2144,13 +2405,13 @@
         <v>114</v>
       </c>
       <c r="P9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T9" t="s">
         <v>115</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>116</v>
-      </c>
-      <c r="U9" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -2158,40 +2419,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
         <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" t="s">
         <v>120</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>121</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>122</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>124</v>
-      </c>
-      <c r="M10" t="s">
-        <v>43</v>
       </c>
       <c r="N10" t="s">
         <v>125</v>
@@ -2200,13 +2461,13 @@
         <v>126</v>
       </c>
       <c r="P10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" t="s">
         <v>127</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>128</v>
-      </c>
-      <c r="U10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2214,55 +2475,55 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11">
+        <v>2025</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
         <v>131</v>
       </c>
-      <c r="D11">
-        <v>2021</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
         <v>132</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
         <v>133</v>
       </c>
-      <c r="I11" t="s">
+      <c r="O11" t="s">
         <v>134</v>
       </c>
-      <c r="J11" t="s">
+      <c r="P11" t="s">
+        <v>133</v>
+      </c>
+      <c r="T11" t="s">
         <v>135</v>
       </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" t="s">
-        <v>136</v>
-      </c>
-      <c r="M11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" t="s">
-        <v>137</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" t="s">
-        <v>137</v>
-      </c>
-      <c r="T11" t="s">
-        <v>138</v>
-      </c>
       <c r="U11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -2270,55 +2531,55 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
         <v>142</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>143</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
         <v>144</v>
       </c>
-      <c r="J12" t="s">
+      <c r="O12" t="s">
         <v>145</v>
       </c>
-      <c r="K12" t="s">
-        <v>99</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>146</v>
       </c>
-      <c r="M12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="T12" t="s">
         <v>147</v>
       </c>
-      <c r="O12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="U12" t="s">
         <v>148</v>
-      </c>
-      <c r="T12" t="s">
-        <v>149</v>
-      </c>
-      <c r="U12" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2326,10 +2587,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <v>2025</v>
@@ -2338,43 +2599,43 @@
         <v>8</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I13" t="s">
         <v>153</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>154</v>
-      </c>
-      <c r="I13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J13" t="s">
-        <v>156</v>
       </c>
       <c r="K13" t="s">
         <v>41</v>
       </c>
       <c r="L13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" t="s">
         <v>157</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>158</v>
       </c>
-      <c r="O13" t="s">
+      <c r="T13" t="s">
         <v>159</v>
       </c>
-      <c r="P13" t="s">
+      <c r="U13" t="s">
         <v>160</v>
-      </c>
-      <c r="T13" t="s">
-        <v>161</v>
-      </c>
-      <c r="U13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2382,55 +2643,55 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>163</v>
       </c>
-      <c r="C14" t="s">
+      <c r="H14" t="s">
         <v>164</v>
       </c>
-      <c r="D14">
-        <v>2025</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>165</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>166</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
         <v>167</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
         <v>168</v>
       </c>
-      <c r="K14" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" t="s">
+        <v>168</v>
+      </c>
+      <c r="T14" t="s">
         <v>169</v>
       </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="U14" t="s">
         <v>170</v>
-      </c>
-      <c r="O14" t="s">
-        <v>171</v>
-      </c>
-      <c r="P14" t="s">
-        <v>172</v>
-      </c>
-      <c r="T14" t="s">
-        <v>173</v>
-      </c>
-      <c r="U14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2438,49 +2699,55 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D15">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
         <v>99</v>
       </c>
       <c r="L15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" t="s">
+        <v>178</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" t="s">
+        <v>180</v>
+      </c>
+      <c r="U15" t="s">
         <v>181</v>
-      </c>
-      <c r="N15" t="s">
-        <v>182</v>
-      </c>
-      <c r="O15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2488,55 +2755,55 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16">
+        <v>2025</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" t="s">
         <v>186</v>
       </c>
-      <c r="C16" t="s">
+      <c r="J16" t="s">
         <v>187</v>
-      </c>
-      <c r="D16">
-        <v>2026</v>
-      </c>
-      <c r="E16">
-        <v>27</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" t="s">
-        <v>189</v>
-      </c>
-      <c r="I16" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" t="s">
-        <v>191</v>
       </c>
       <c r="K16" t="s">
         <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s">
         <v>80</v>
       </c>
       <c r="N16" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" t="s">
+        <v>191</v>
+      </c>
+      <c r="T16" t="s">
+        <v>192</v>
+      </c>
+      <c r="U16" t="s">
         <v>193</v>
-      </c>
-      <c r="O16" t="s">
-        <v>194</v>
-      </c>
-      <c r="P16" t="s">
-        <v>193</v>
-      </c>
-      <c r="T16" t="s">
-        <v>195</v>
-      </c>
-      <c r="U16" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2544,46 +2811,46 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="I17" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" t="s">
         <v>199</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
         <v>200</v>
       </c>
-      <c r="K17" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" t="s">
-        <v>192</v>
-      </c>
       <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
         <v>201</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>202</v>
-      </c>
-      <c r="O17" t="s">
-        <v>194</v>
       </c>
       <c r="P17" t="s">
         <v>203</v>
@@ -2592,7 +2859,7 @@
         <v>204</v>
       </c>
       <c r="U17" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2600,55 +2867,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
-      </c>
-      <c r="M18" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="N18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="T18" t="s">
-        <v>212</v>
-      </c>
-      <c r="U18" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2656,55 +2917,55 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D19">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="E19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="J19" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="O19" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="T19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="U19" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2712,55 +2973,55 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D20">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K20" t="s">
         <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="N20" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O20" t="s">
+        <v>225</v>
+      </c>
+      <c r="P20" t="s">
+        <v>234</v>
+      </c>
+      <c r="T20" t="s">
+        <v>235</v>
+      </c>
+      <c r="U20" t="s">
         <v>227</v>
-      </c>
-      <c r="P20" t="s">
-        <v>228</v>
-      </c>
-      <c r="T20" t="s">
-        <v>229</v>
-      </c>
-      <c r="U20" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2768,52 +3029,55 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D21">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="K21" t="s">
         <v>41</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>223</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
       </c>
       <c r="N21" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="O21" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="T21" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="U21" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2821,55 +3085,55 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D22">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="J22" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="K22" t="s">
         <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="N22" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="T22" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="U22" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2877,55 +3141,55 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C23" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D23">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="E23">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="J23" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K23" t="s">
         <v>41</v>
       </c>
       <c r="L23" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O23" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="T23" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="U23" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2933,55 +3197,52 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D24">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="I24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K24" t="s">
         <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>262</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="N24" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="P24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="T24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U24" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2995,49 +3256,49 @@
         <v>268</v>
       </c>
       <c r="D25">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" t="s">
         <v>269</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>270</v>
       </c>
-      <c r="I25" t="s">
-        <v>271</v>
-      </c>
-      <c r="J25" t="s">
-        <v>272</v>
-      </c>
       <c r="K25" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="L25" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="M25" t="s">
         <v>43</v>
       </c>
       <c r="N25" t="s">
+        <v>271</v>
+      </c>
+      <c r="O25" t="s">
+        <v>272</v>
+      </c>
+      <c r="P25" t="s">
+        <v>273</v>
+      </c>
+      <c r="T25" t="s">
         <v>274</v>
       </c>
-      <c r="O25" t="s">
-        <v>264</v>
-      </c>
-      <c r="P25" t="s">
-        <v>275</v>
-      </c>
-      <c r="T25" t="s">
-        <v>276</v>
-      </c>
       <c r="U25" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3045,55 +3306,55 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" t="s">
+        <v>279</v>
+      </c>
+      <c r="J26" t="s">
         <v>280</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
         <v>281</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N26" t="s">
         <v>282</v>
       </c>
-      <c r="J26" t="s">
+      <c r="O26" t="s">
         <v>283</v>
       </c>
-      <c r="K26" t="s">
-        <v>99</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>284</v>
       </c>
-      <c r="M26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="T26" t="s">
+        <v>280</v>
+      </c>
+      <c r="U26" t="s">
         <v>285</v>
-      </c>
-      <c r="O26" t="s">
-        <v>102</v>
-      </c>
-      <c r="P26" t="s">
-        <v>286</v>
-      </c>
-      <c r="T26" t="s">
-        <v>287</v>
-      </c>
-      <c r="U26" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3101,52 +3362,55 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" t="s">
+        <v>289</v>
+      </c>
+      <c r="I27" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" t="s">
         <v>291</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
         <v>292</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
         <v>293</v>
       </c>
-      <c r="J27" t="s">
+      <c r="O27" t="s">
         <v>294</v>
       </c>
-      <c r="K27" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
+        <v>293</v>
+      </c>
+      <c r="T27" t="s">
         <v>295</v>
       </c>
-      <c r="N27" t="s">
+      <c r="U27" t="s">
         <v>296</v>
-      </c>
-      <c r="O27" t="s">
-        <v>297</v>
-      </c>
-      <c r="P27" t="s">
-        <v>298</v>
-      </c>
-      <c r="T27" t="s">
-        <v>299</v>
-      </c>
-      <c r="U27" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3154,55 +3418,55 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="s">
+        <v>299</v>
+      </c>
+      <c r="H28" t="s">
+        <v>300</v>
+      </c>
+      <c r="I28" t="s">
+        <v>301</v>
+      </c>
+      <c r="J28" t="s">
+        <v>302</v>
+      </c>
+      <c r="K28" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" t="s">
         <v>303</v>
-      </c>
-      <c r="H28" t="s">
-        <v>304</v>
-      </c>
-      <c r="I28" t="s">
-        <v>305</v>
-      </c>
-      <c r="J28" t="s">
-        <v>306</v>
-      </c>
-      <c r="K28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" t="s">
-        <v>307</v>
       </c>
       <c r="M28" t="s">
         <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O28" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="T28" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="U28" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3210,55 +3474,55 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
+      </c>
+      <c r="D29">
+        <v>2025</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" t="s">
+        <v>311</v>
+      </c>
+      <c r="I29" t="s">
         <v>312</v>
       </c>
-      <c r="C29" t="s">
+      <c r="J29" t="s">
         <v>313</v>
       </c>
-      <c r="D29">
-        <v>2021</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" t="s">
         <v>314</v>
       </c>
-      <c r="H29" t="s">
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
         <v>315</v>
       </c>
-      <c r="I29" t="s">
+      <c r="O29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" t="s">
         <v>316</v>
       </c>
-      <c r="J29" t="s">
+      <c r="T29" t="s">
         <v>317</v>
       </c>
-      <c r="K29" t="s">
-        <v>41</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="U29" t="s">
         <v>318</v>
-      </c>
-      <c r="M29" t="s">
-        <v>43</v>
-      </c>
-      <c r="N29" t="s">
-        <v>319</v>
-      </c>
-      <c r="O29" t="s">
-        <v>320</v>
-      </c>
-      <c r="P29" t="s">
-        <v>319</v>
-      </c>
-      <c r="T29" t="s">
-        <v>321</v>
-      </c>
-      <c r="U29" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3266,55 +3530,52 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C30" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D30">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" t="s">
+        <v>322</v>
+      </c>
+      <c r="I30" t="s">
+        <v>323</v>
+      </c>
+      <c r="J30" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" t="s">
         <v>325</v>
       </c>
-      <c r="H30" t="s">
+      <c r="N30" t="s">
         <v>326</v>
       </c>
-      <c r="I30" t="s">
+      <c r="O30" t="s">
         <v>327</v>
       </c>
-      <c r="J30" t="s">
+      <c r="P30" t="s">
         <v>328</v>
       </c>
-      <c r="K30" t="s">
-        <v>41</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="T30" t="s">
         <v>329</v>
       </c>
-      <c r="M30" t="s">
-        <v>43</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="U30" t="s">
         <v>330</v>
-      </c>
-      <c r="O30" t="s">
-        <v>331</v>
-      </c>
-      <c r="P30" t="s">
-        <v>330</v>
-      </c>
-      <c r="T30" t="s">
-        <v>332</v>
-      </c>
-      <c r="U30" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3322,55 +3583,55 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>333</v>
+      </c>
+      <c r="H31" t="s">
         <v>334</v>
       </c>
-      <c r="C31" t="s">
+      <c r="I31" t="s">
         <v>335</v>
       </c>
-      <c r="D31">
-        <v>2026</v>
-      </c>
-      <c r="E31">
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="J31" t="s">
         <v>336</v>
-      </c>
-      <c r="H31" t="s">
-        <v>337</v>
-      </c>
-      <c r="I31" t="s">
-        <v>338</v>
-      </c>
-      <c r="J31" t="s">
-        <v>339</v>
       </c>
       <c r="K31" t="s">
         <v>99</v>
       </c>
       <c r="L31" t="s">
+        <v>337</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" t="s">
+        <v>338</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s">
+        <v>339</v>
+      </c>
+      <c r="T31" t="s">
         <v>340</v>
       </c>
-      <c r="M31" t="s">
-        <v>80</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="U31" t="s">
         <v>341</v>
-      </c>
-      <c r="O31" t="s">
-        <v>342</v>
-      </c>
-      <c r="P31" t="s">
-        <v>343</v>
-      </c>
-      <c r="T31" t="s">
-        <v>344</v>
-      </c>
-      <c r="U31" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
@@ -3378,55 +3639,55 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32">
+        <v>2021</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>344</v>
+      </c>
+      <c r="H32" t="s">
+        <v>345</v>
+      </c>
+      <c r="I32" t="s">
         <v>346</v>
       </c>
-      <c r="C32" t="s">
+      <c r="J32" t="s">
         <v>347</v>
       </c>
-      <c r="D32">
-        <v>2025</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
         <v>348</v>
-      </c>
-      <c r="H32" t="s">
-        <v>349</v>
-      </c>
-      <c r="I32" t="s">
-        <v>350</v>
-      </c>
-      <c r="J32" t="s">
-        <v>351</v>
-      </c>
-      <c r="K32" t="s">
-        <v>99</v>
-      </c>
-      <c r="L32" t="s">
-        <v>352</v>
       </c>
       <c r="M32" t="s">
         <v>43</v>
       </c>
       <c r="N32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="P32" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="T32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -3434,55 +3695,55 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33">
+        <v>2026</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>355</v>
+      </c>
+      <c r="H33" t="s">
+        <v>356</v>
+      </c>
+      <c r="I33" t="s">
         <v>357</v>
       </c>
-      <c r="C33" t="s">
+      <c r="J33" t="s">
         <v>358</v>
       </c>
-      <c r="D33">
-        <v>2025</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="K33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
         <v>359</v>
       </c>
-      <c r="H33" t="s">
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" t="s">
         <v>360</v>
       </c>
-      <c r="I33" t="s">
+      <c r="O33" t="s">
         <v>361</v>
       </c>
-      <c r="J33" t="s">
+      <c r="P33" t="s">
+        <v>360</v>
+      </c>
+      <c r="T33" t="s">
         <v>362</v>
       </c>
-      <c r="K33" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="U33" t="s">
         <v>363</v>
-      </c>
-      <c r="M33" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" t="s">
-        <v>364</v>
-      </c>
-      <c r="O33" t="s">
-        <v>365</v>
-      </c>
-      <c r="P33" t="s">
-        <v>366</v>
-      </c>
-      <c r="T33" t="s">
-        <v>367</v>
-      </c>
-      <c r="U33" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -3490,55 +3751,55 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
+        <v>366</v>
+      </c>
+      <c r="H34" t="s">
+        <v>367</v>
+      </c>
+      <c r="I34" t="s">
+        <v>368</v>
+      </c>
+      <c r="J34" t="s">
+        <v>369</v>
+      </c>
+      <c r="K34" t="s">
+        <v>99</v>
+      </c>
+      <c r="L34" t="s">
+        <v>370</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
         <v>371</v>
       </c>
-      <c r="H34" t="s">
+      <c r="O34" t="s">
         <v>372</v>
       </c>
-      <c r="I34" t="s">
+      <c r="P34" t="s">
         <v>373</v>
       </c>
-      <c r="J34" t="s">
+      <c r="T34" t="s">
         <v>374</v>
       </c>
-      <c r="K34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="U34" t="s">
         <v>375</v>
-      </c>
-      <c r="M34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N34" t="s">
-        <v>376</v>
-      </c>
-      <c r="O34" t="s">
-        <v>377</v>
-      </c>
-      <c r="P34" t="s">
-        <v>378</v>
-      </c>
-      <c r="T34" t="s">
-        <v>379</v>
-      </c>
-      <c r="U34" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -3546,46 +3807,46 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>376</v>
+      </c>
+      <c r="C35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D35">
+        <v>2026</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>378</v>
+      </c>
+      <c r="H35" t="s">
+        <v>379</v>
+      </c>
+      <c r="I35" t="s">
+        <v>380</v>
+      </c>
+      <c r="J35" t="s">
         <v>381</v>
       </c>
-      <c r="C35" t="s">
+      <c r="K35" t="s">
+        <v>99</v>
+      </c>
+      <c r="L35" t="s">
         <v>382</v>
       </c>
-      <c r="D35">
-        <v>2025</v>
-      </c>
-      <c r="E35">
-        <v>13</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>371</v>
-      </c>
-      <c r="H35" t="s">
-        <v>372</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="M35" t="s">
+        <v>80</v>
+      </c>
+      <c r="N35" t="s">
         <v>383</v>
       </c>
-      <c r="J35" t="s">
+      <c r="O35" t="s">
         <v>384</v>
-      </c>
-      <c r="K35" t="s">
-        <v>41</v>
-      </c>
-      <c r="L35" t="s">
-        <v>375</v>
-      </c>
-      <c r="M35" t="s">
-        <v>43</v>
-      </c>
-      <c r="N35" t="s">
-        <v>385</v>
-      </c>
-      <c r="O35" t="s">
-        <v>377</v>
       </c>
       <c r="P35" t="s">
         <v>385</v>
@@ -3594,7 +3855,455 @@
         <v>386</v>
       </c>
       <c r="U35" t="s">
-        <v>380</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36">
+        <v>2025</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H36" t="s">
+        <v>391</v>
+      </c>
+      <c r="I36" t="s">
+        <v>392</v>
+      </c>
+      <c r="J36" t="s">
+        <v>393</v>
+      </c>
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" t="s">
+        <v>394</v>
+      </c>
+      <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36" t="s">
+        <v>395</v>
+      </c>
+      <c r="O36" t="s">
+        <v>396</v>
+      </c>
+      <c r="P36" t="s">
+        <v>397</v>
+      </c>
+      <c r="T36" t="s">
+        <v>398</v>
+      </c>
+      <c r="U36" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>400</v>
+      </c>
+      <c r="C37" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>402</v>
+      </c>
+      <c r="H37" t="s">
+        <v>403</v>
+      </c>
+      <c r="I37" t="s">
+        <v>404</v>
+      </c>
+      <c r="J37" t="s">
+        <v>405</v>
+      </c>
+      <c r="K37" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" t="s">
+        <v>406</v>
+      </c>
+      <c r="M37" t="s">
+        <v>407</v>
+      </c>
+      <c r="N37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O37" t="s">
+        <v>409</v>
+      </c>
+      <c r="P37" t="s">
+        <v>350</v>
+      </c>
+      <c r="T37" t="s">
+        <v>410</v>
+      </c>
+      <c r="U37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>414</v>
+      </c>
+      <c r="H38" t="s">
+        <v>415</v>
+      </c>
+      <c r="I38" t="s">
+        <v>416</v>
+      </c>
+      <c r="J38" t="s">
+        <v>417</v>
+      </c>
+      <c r="K38" t="s">
+        <v>99</v>
+      </c>
+      <c r="L38" t="s">
+        <v>418</v>
+      </c>
+      <c r="M38" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" t="s">
+        <v>419</v>
+      </c>
+      <c r="O38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P38" t="s">
+        <v>420</v>
+      </c>
+      <c r="T38" t="s">
+        <v>421</v>
+      </c>
+      <c r="U38" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>423</v>
+      </c>
+      <c r="C39" t="s">
+        <v>424</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>425</v>
+      </c>
+      <c r="H39" t="s">
+        <v>426</v>
+      </c>
+      <c r="I39" t="s">
+        <v>427</v>
+      </c>
+      <c r="J39" t="s">
+        <v>428</v>
+      </c>
+      <c r="K39" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" t="s">
+        <v>429</v>
+      </c>
+      <c r="M39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39" t="s">
+        <v>430</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s">
+        <v>431</v>
+      </c>
+      <c r="T39" t="s">
+        <v>432</v>
+      </c>
+      <c r="U39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" t="s">
+        <v>435</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>436</v>
+      </c>
+      <c r="H40" t="s">
+        <v>437</v>
+      </c>
+      <c r="I40" t="s">
+        <v>438</v>
+      </c>
+      <c r="J40" t="s">
+        <v>439</v>
+      </c>
+      <c r="K40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L40" t="s">
+        <v>440</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>441</v>
+      </c>
+      <c r="O40" t="s">
+        <v>442</v>
+      </c>
+      <c r="P40" t="s">
+        <v>443</v>
+      </c>
+      <c r="T40" t="s">
+        <v>444</v>
+      </c>
+      <c r="U40" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" t="s">
+        <v>447</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>448</v>
+      </c>
+      <c r="H41" t="s">
+        <v>449</v>
+      </c>
+      <c r="I41" t="s">
+        <v>450</v>
+      </c>
+      <c r="J41" t="s">
+        <v>451</v>
+      </c>
+      <c r="K41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" t="s">
+        <v>450</v>
+      </c>
+      <c r="M41" t="s">
+        <v>80</v>
+      </c>
+      <c r="N41" t="s">
+        <v>452</v>
+      </c>
+      <c r="O41" t="s">
+        <v>453</v>
+      </c>
+      <c r="P41" t="s">
+        <v>452</v>
+      </c>
+      <c r="T41" t="s">
+        <v>454</v>
+      </c>
+      <c r="U41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>456</v>
+      </c>
+      <c r="C42" t="s">
+        <v>457</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>458</v>
+      </c>
+      <c r="H42" t="s">
+        <v>459</v>
+      </c>
+      <c r="I42" t="s">
+        <v>460</v>
+      </c>
+      <c r="J42" t="s">
+        <v>461</v>
+      </c>
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
+        <v>462</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42" t="s">
+        <v>463</v>
+      </c>
+      <c r="O42" t="s">
+        <v>464</v>
+      </c>
+      <c r="P42" t="s">
+        <v>465</v>
+      </c>
+      <c r="T42" t="s">
+        <v>466</v>
+      </c>
+      <c r="U42" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" t="s">
+        <v>469</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>458</v>
+      </c>
+      <c r="H43" t="s">
+        <v>459</v>
+      </c>
+      <c r="I43" t="s">
+        <v>470</v>
+      </c>
+      <c r="J43" t="s">
+        <v>471</v>
+      </c>
+      <c r="K43" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" t="s">
+        <v>462</v>
+      </c>
+      <c r="M43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43" t="s">
+        <v>472</v>
+      </c>
+      <c r="O43" t="s">
+        <v>464</v>
+      </c>
+      <c r="P43" t="s">
+        <v>472</v>
+      </c>
+      <c r="T43" t="s">
+        <v>473</v>
+      </c>
+      <c r="U43" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
